--- a/csv/main-files/Dhole-patil.xlsx
+++ b/csv/main-files/Dhole-patil.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="174">
   <si>
     <t>Prabhag 20A : Chanchala Kodre</t>
   </si>
@@ -145,6 +145,9 @@
     <t>2015 - 2016</t>
   </si>
   <si>
+    <t>104/127</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Water Supply</t>
   </si>
   <si>
@@ -206,6 +209,9 @@
   </si>
   <si>
     <t>SB</t>
+  </si>
+  <si>
+    <t>99/127</t>
   </si>
   <si>
     <t>Bucket</t>
@@ -292,6 +298,9 @@
     <t>School maintenace/ renovation</t>
   </si>
   <si>
+    <t>122/127</t>
+  </si>
+  <si>
     <t>Cemetary work</t>
   </si>
   <si>
@@ -338,6 +347,9 @@
   </si>
   <si>
     <t>Architectural work</t>
+  </si>
+  <si>
+    <t>107/127</t>
   </si>
   <si>
     <t>Developement Work</t>
@@ -400,6 +412,9 @@
     <t>WB</t>
   </si>
   <si>
+    <t>121/127</t>
+  </si>
+  <si>
     <t>Concrietization</t>
   </si>
   <si>
@@ -425,6 +440,9 @@
   </si>
   <si>
     <t>Fabrication work</t>
+  </si>
+  <si>
+    <t>112/127</t>
   </si>
   <si>
     <t>Electrification, Furniture</t>
@@ -466,6 +484,9 @@
     <t>T</t>
   </si>
   <si>
+    <t>119/127</t>
+  </si>
+  <si>
     <t>Prabhag 23B : Sangita Tikone</t>
   </si>
   <si>
@@ -475,13 +496,25 @@
     <t>Building Library</t>
   </si>
   <si>
+    <t>111/127</t>
+  </si>
+  <si>
     <t>Prabhag 40A : Laxmitai Ghodke</t>
+  </si>
+  <si>
+    <t>58/66</t>
+  </si>
+  <si>
+    <t>53/77</t>
   </si>
   <si>
     <t>Road works</t>
   </si>
   <si>
     <t>96/116</t>
+  </si>
+  <si>
+    <t>101/127</t>
   </si>
   <si>
     <t>Development Wrok</t>
@@ -506,6 +539,9 @@
   </si>
   <si>
     <t>Putting Iron Doors/Gates</t>
+  </si>
+  <si>
+    <t>108/127</t>
   </si>
 </sst>
 </file>
@@ -1573,7 +1609,9 @@
       <c r="F30" s="14">
         <v>5.0</v>
       </c>
-      <c r="G30" s="29"/>
+      <c r="G30" s="14" t="s">
+        <v>41</v>
+      </c>
       <c r="H30" s="29"/>
     </row>
     <row r="31">
@@ -1584,13 +1622,13 @@
         <v>2.0</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D31" s="12">
         <v>99939.0</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F31" s="16"/>
       <c r="G31" s="16"/>
@@ -1664,7 +1702,7 @@
         <v>6.0</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D35" s="12">
         <v>154171.0</v>
@@ -1704,13 +1742,13 @@
         <v>8.0</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D37" s="12">
         <v>155000.0</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
@@ -1733,7 +1771,7 @@
     </row>
     <row r="40">
       <c r="C40" s="31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D40" s="32" t="str">
         <f>(D9+D18+D29+D37)</f>
@@ -1780,7 +1818,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1835,7 +1873,7 @@
         <v>0.0</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="H3" s="14">
         <v>96.96</v>
@@ -1889,13 +1927,13 @@
         <v>4.0</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D6" s="12">
         <v>200000.0</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
@@ -1909,13 +1947,13 @@
         <v>7.0</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D7" s="12">
         <v>157213.0</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
@@ -1929,13 +1967,13 @@
         <v>8.0</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D8" s="12">
         <v>50000.0</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
@@ -1949,13 +1987,13 @@
         <v>9.0</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D9" s="12">
         <v>138395.0</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
@@ -2036,7 +2074,7 @@
         <v>7.0</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H13" s="14">
         <v>80.51</v>
@@ -2070,13 +2108,13 @@
         <v>3.0</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D15" s="12">
         <v>200000.0</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
@@ -2110,13 +2148,13 @@
         <v>5.0</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D17" s="12">
         <v>200000.0</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
@@ -2130,13 +2168,13 @@
         <v>8.0</v>
       </c>
       <c r="C18" s="70" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="D18" s="12">
         <v>200000.0</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
@@ -2177,7 +2215,7 @@
         <v>5.0</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="H20" s="14">
         <v>94.82</v>
@@ -2191,13 +2229,13 @@
         <v>2.0</v>
       </c>
       <c r="C21" s="26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D21" s="12">
         <v>200000.0</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
@@ -2291,13 +2329,13 @@
         <v>7.0</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D26" s="12">
         <v>200000.0</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
@@ -2311,13 +2349,13 @@
         <v>8.0</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="D27" s="12">
         <v>199373.0</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
@@ -2351,13 +2389,13 @@
         <v>10.0</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="D29" s="12">
         <v>170796.0</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
@@ -2371,7 +2409,7 @@
         <v>11.0</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D30" s="12">
         <v>199692.0</v>
@@ -2413,7 +2451,9 @@
       <c r="F32" s="14">
         <v>5.0</v>
       </c>
-      <c r="G32" s="29"/>
+      <c r="G32" s="14" t="s">
+        <v>173</v>
+      </c>
       <c r="H32" s="29"/>
     </row>
     <row r="33">
@@ -2464,13 +2504,13 @@
         <v>4.0</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="D35" s="12">
         <v>150446.0</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
@@ -2504,13 +2544,13 @@
         <v>6.0</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D37" s="12">
         <v>169495.0</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
@@ -2524,7 +2564,7 @@
         <v>7.0</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D38" s="12">
         <v>193692.0</v>
@@ -2573,7 +2613,7 @@
     </row>
     <row r="42">
       <c r="C42" s="31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D42" s="32" t="str">
         <f>(D12+D19+D31+D40)</f>
@@ -2621,7 +2661,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2676,7 +2716,7 @@
         <v>0.0</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H3" s="14">
         <v>81.81</v>
@@ -2710,13 +2750,13 @@
         <v>3.0</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D5" s="12">
         <v>131192.0</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
@@ -2785,19 +2825,19 @@
         <v>1.0</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D9" s="12">
         <v>154854.0</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F9" s="14">
         <v>0.0</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H9" s="14">
         <v>80.51</v>
@@ -2811,13 +2851,13 @@
         <v>2.0</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D10" s="12">
         <v>155523.0</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
@@ -2831,13 +2871,13 @@
         <v>3.0</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D11" s="12">
         <v>163594.0</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
@@ -2931,13 +2971,13 @@
         <v>8.0</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D16" s="12">
         <v>151241.0</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
@@ -3018,7 +3058,7 @@
         <v>0.0</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H20" s="14">
         <v>71.55</v>
@@ -3032,13 +3072,13 @@
         <v>2.0</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D21" s="12">
         <v>93839.0</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
@@ -3052,13 +3092,13 @@
         <v>3.0</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D22" s="12">
         <v>92495.0</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
@@ -3227,18 +3267,20 @@
         <v>1.0</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D31" s="28">
         <v>190811.0</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F31" s="14">
         <v>0.0</v>
       </c>
-      <c r="G31" s="29"/>
+      <c r="G31" s="14" t="s">
+        <v>63</v>
+      </c>
       <c r="H31" s="14"/>
     </row>
     <row r="32">
@@ -3249,13 +3291,13 @@
         <v>2.0</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D32" s="12">
         <v>187592.0</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
@@ -3329,13 +3371,13 @@
         <v>6.0</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D36" s="12">
         <v>159555.0</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
@@ -3349,7 +3391,7 @@
         <v>7.0</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D37" s="12">
         <v>200000.0</v>
@@ -3367,13 +3409,13 @@
         <v>8.0</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D38" s="12">
         <v>199722.0</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
@@ -3396,7 +3438,7 @@
     </row>
     <row r="41">
       <c r="C41" s="31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D41" s="32" t="str">
         <f>(D8+D19+D30+D39)</f>
@@ -3449,7 +3491,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3523,7 +3565,7 @@
         <v>0.0</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H3" s="39">
         <v>92.44</v>
@@ -3537,7 +3579,7 @@
         <v>2.0</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D4" s="38">
         <v>156981.0</v>
@@ -3557,7 +3599,7 @@
         <v>3.0</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D5" s="38">
         <v>198117.0</v>
@@ -3577,13 +3619,13 @@
         <v>4.0</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D6" s="38">
         <v>200000.0</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
@@ -3597,13 +3639,13 @@
         <v>5.0</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D7" s="38">
         <v>153598.0</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
@@ -3617,7 +3659,7 @@
         <v>6.0</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D8" s="38">
         <v>162842.0</v>
@@ -3637,7 +3679,7 @@
         <v>7.0</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D9" s="38">
         <v>104653.0</v>
@@ -3657,13 +3699,13 @@
         <v>8.0</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D10" s="38">
         <v>108051.0</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
@@ -3677,13 +3719,13 @@
         <v>9.0</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D11" s="38">
         <v>60000.0</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
@@ -3732,19 +3774,19 @@
         <v>1.0</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D14" s="38">
         <v>134523.0</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F14" s="14">
         <v>1.0</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H14" s="39">
         <v>97.4</v>
@@ -3798,13 +3840,13 @@
         <v>4.0</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D17" s="38">
         <v>161226.0</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
@@ -3818,13 +3860,13 @@
         <v>5.0</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D18" s="38">
         <v>200000.0</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
@@ -3838,13 +3880,13 @@
         <v>6.0</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D19" s="38">
         <v>200000.0</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
@@ -3905,7 +3947,7 @@
         <v>0.0</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H22" s="39">
         <v>96.55</v>
@@ -3959,13 +4001,13 @@
         <v>4.0</v>
       </c>
       <c r="C25" s="44" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D25" s="45">
         <v>98791.0</v>
       </c>
       <c r="E25" s="46" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
@@ -3979,13 +4021,13 @@
         <v>5.0</v>
       </c>
       <c r="C26" s="47" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D26" s="48">
         <v>163785.0</v>
       </c>
       <c r="E26" s="49" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
@@ -4039,13 +4081,13 @@
         <v>8.0</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D29" s="48">
         <v>200000.0</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
@@ -4059,13 +4101,13 @@
         <v>9.0</v>
       </c>
       <c r="C30" s="52" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D30" s="53">
         <v>161926.0</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
@@ -4079,13 +4121,13 @@
         <v>10.0</v>
       </c>
       <c r="C31" s="54" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D31" s="48">
         <v>196602.0</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F31" s="16"/>
       <c r="G31" s="16"/>
@@ -4099,13 +4141,13 @@
         <v>11.0</v>
       </c>
       <c r="C32" s="56" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D32" s="48">
         <v>200000.0</v>
       </c>
       <c r="E32" s="55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
@@ -4119,13 +4161,13 @@
         <v>12.0</v>
       </c>
       <c r="C33" s="58" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D33" s="59">
         <v>169782.0</v>
       </c>
       <c r="E33" s="57" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
@@ -4154,18 +4196,20 @@
         <v>1.0</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D35" s="38">
         <v>179200.0</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F35" s="14">
         <v>0.0</v>
       </c>
-      <c r="G35" s="29"/>
+      <c r="G35" s="14" t="s">
+        <v>92</v>
+      </c>
       <c r="H35" s="29"/>
     </row>
     <row r="36">
@@ -4176,13 +4220,13 @@
         <v>2.0</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D36" s="62">
         <v>172411.0</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
@@ -4196,13 +4240,13 @@
         <v>3.0</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D37" s="38">
         <v>152456.0</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
@@ -4216,7 +4260,7 @@
         <v>4.0</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D38" s="38">
         <v>159294.0</v>
@@ -4236,13 +4280,13 @@
         <v>5.0</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D39" s="38">
         <v>133225.0</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F39" s="16"/>
       <c r="G39" s="16"/>
@@ -4256,7 +4300,7 @@
         <v>6.0</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D40" s="38">
         <v>164639.0</v>
@@ -4276,13 +4320,13 @@
         <v>7.0</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D41" s="38">
         <v>143870.0</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F41" s="16"/>
       <c r="G41" s="16"/>
@@ -4314,7 +4358,7 @@
       <c r="A44" s="37"/>
       <c r="B44" s="37"/>
       <c r="C44" s="31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D44" s="32" t="str">
         <f>(D13+D21+D34+D42)</f>
@@ -11187,7 +11231,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -11261,7 +11305,7 @@
         <v>0.0</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H3" s="14">
         <v>93.93</v>
@@ -11275,13 +11319,13 @@
         <v>2.0</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D4" s="12">
         <v>60000.0</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -11295,13 +11339,13 @@
         <v>3.0</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D5" s="12">
         <v>157232.0</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
@@ -11315,13 +11359,13 @@
         <v>4.0</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D6" s="12">
         <v>107568.0</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
@@ -11375,13 +11419,13 @@
         <v>7.0</v>
       </c>
       <c r="C9" s="26" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D9" s="12">
         <v>198000.0</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
@@ -11395,13 +11439,13 @@
         <v>8.0</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D10" s="12">
         <v>198000.0</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
@@ -11415,13 +11459,13 @@
         <v>9.0</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D11" s="12">
         <v>198000.0</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
@@ -11470,19 +11514,19 @@
         <v>1.0</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D14" s="12">
         <v>167289.0</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F14" s="14">
         <v>0.0</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H14" s="14">
         <v>93.5</v>
@@ -11516,13 +11560,13 @@
         <v>3.0</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D16" s="12">
         <v>161226.0</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
@@ -11536,13 +11580,13 @@
         <v>4.0</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D17" s="12">
         <v>200000.0</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
@@ -11583,7 +11627,7 @@
         <v>0.0</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H19" s="14">
         <v>84.48</v>
@@ -11617,13 +11661,13 @@
         <v>3.0</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D21" s="12">
         <v>161913.0</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
@@ -11637,13 +11681,13 @@
         <v>4.0</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D22" s="12">
         <v>165296.0</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
@@ -11657,13 +11701,13 @@
         <v>5.0</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D23" s="12">
         <v>200000.0</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
@@ -11697,13 +11741,13 @@
         <v>7.0</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D25" s="12">
         <v>200000.0</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
@@ -11717,7 +11761,7 @@
         <v>8.0</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D26" s="12">
         <v>169510.0</v>
@@ -11777,13 +11821,13 @@
         <v>11.0</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D29" s="12">
         <v>168866.0</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
@@ -11797,13 +11841,13 @@
         <v>12.0</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D30" s="12">
         <v>179187.0</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
@@ -11832,18 +11876,20 @@
         <v>1.0</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D32" s="12">
         <v>164852.0</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F32" s="14">
         <v>0.0</v>
       </c>
-      <c r="G32" s="29"/>
+      <c r="G32" s="14" t="s">
+        <v>109</v>
+      </c>
       <c r="H32" s="29"/>
     </row>
     <row r="33">
@@ -11874,13 +11920,13 @@
         <v>3.0</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D34" s="12">
         <v>163306.0</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
@@ -11894,13 +11940,13 @@
         <v>4.0</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D35" s="12">
         <v>174142.0</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
@@ -11914,13 +11960,13 @@
         <v>5.0</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D36" s="12">
         <v>155523.0</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
@@ -11934,7 +11980,7 @@
         <v>6.0</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D37" s="12">
         <v>169507.0</v>
@@ -12012,7 +12058,7 @@
       <c r="A42" s="37"/>
       <c r="B42" s="37"/>
       <c r="C42" s="31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D42" s="66" t="str">
         <f>(D13+D18+D31+D40)</f>
@@ -18878,7 +18924,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -18921,19 +18967,19 @@
         <v>1.0</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D3" s="12">
         <v>132045.0</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F3" s="14">
         <v>0.0</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H3" s="14">
         <v>93.93</v>
@@ -18987,7 +19033,7 @@
         <v>4.0</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D6" s="67">
         <v>78879.0</v>
@@ -19007,13 +19053,13 @@
         <v>5.0</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D7" s="12">
         <v>140777.0</v>
       </c>
       <c r="E7" s="68" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
@@ -19027,13 +19073,13 @@
         <v>6.0</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D8" s="12">
         <v>148635.0</v>
       </c>
       <c r="E8" s="68" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
@@ -19047,7 +19093,7 @@
         <v>7.0</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D9" s="12">
         <v>188556.0</v>
@@ -19067,7 +19113,7 @@
         <v>8.0</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D10" s="12">
         <v>99607.0</v>
@@ -19087,13 +19133,13 @@
         <v>9.0</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D11" s="12">
         <v>200000.0</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
@@ -19107,13 +19153,13 @@
         <v>10.0</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D12" s="12">
         <v>200000.0</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
@@ -19142,19 +19188,19 @@
         <v>1.0</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D14" s="12">
         <v>147380.0</v>
       </c>
       <c r="E14" s="69" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F14" s="14">
         <v>0.0</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="H14" s="14">
         <v>98.7</v>
@@ -19168,13 +19214,13 @@
         <v>2.0</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D15" s="12">
         <v>147107.0</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
@@ -19228,13 +19274,13 @@
         <v>5.0</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D18" s="12">
         <v>145427.0</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
@@ -19248,13 +19294,13 @@
         <v>6.0</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D19" s="12">
         <v>132390.0</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
@@ -19268,13 +19314,13 @@
         <v>7.0</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D20" s="12">
         <v>200000.0</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
@@ -19288,13 +19334,13 @@
         <v>8.0</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D21" s="12">
         <v>182425.0</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
@@ -19308,13 +19354,13 @@
         <v>9.0</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D22" s="12">
         <v>156170.0</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
@@ -19328,13 +19374,13 @@
         <v>10.0</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D23" s="12">
         <v>141496.0</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
@@ -19363,19 +19409,19 @@
         <v>1.0</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D25" s="12">
         <v>193948.0</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F25" s="14">
         <v>0.0</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H25" s="14">
         <v>98.27</v>
@@ -19409,13 +19455,13 @@
         <v>3.0</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D27" s="12">
         <v>200000.0</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
@@ -19429,13 +19475,13 @@
         <v>4.0</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D28" s="12">
         <v>200000.0</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
@@ -19469,13 +19515,13 @@
         <v>6.0</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D30" s="12">
         <v>181582.0</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
@@ -19489,13 +19535,13 @@
         <v>7.0</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D31" s="12">
         <v>199294.0</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F31" s="16"/>
       <c r="G31" s="16"/>
@@ -19529,13 +19575,13 @@
         <v>9.0</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D33" s="12">
         <v>171196.0</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
@@ -19569,13 +19615,13 @@
         <v>11.0</v>
       </c>
       <c r="C35" s="27" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D35" s="12">
         <v>200000.0</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
@@ -19589,13 +19635,13 @@
         <v>12.0</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D36" s="12">
         <v>200000.0</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
@@ -19609,13 +19655,13 @@
         <v>13.0</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D37" s="12">
         <v>200000.0</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
@@ -19644,18 +19690,20 @@
         <v>1.0</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D39" s="12">
         <v>127513.0</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F39" s="14">
         <v>0.0</v>
       </c>
-      <c r="G39" s="29"/>
+      <c r="G39" s="14" t="s">
+        <v>130</v>
+      </c>
       <c r="H39" s="29"/>
     </row>
     <row r="40">
@@ -19666,13 +19714,13 @@
         <v>2.0</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D40" s="12">
         <v>157377.0</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
@@ -19686,13 +19734,13 @@
         <v>3.0</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D41" s="12">
         <v>168164.0</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F41" s="16"/>
       <c r="G41" s="16"/>
@@ -19706,7 +19754,7 @@
         <v>4.0</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D42" s="12">
         <v>179275.0</v>
@@ -19746,13 +19794,13 @@
         <v>6.0</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D44" s="12">
         <v>171157.0</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F44" s="16"/>
       <c r="G44" s="16"/>
@@ -19766,13 +19814,13 @@
         <v>7.0</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D45" s="12">
         <v>168245.0</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F45" s="16"/>
       <c r="G45" s="16"/>
@@ -19795,7 +19843,7 @@
     </row>
     <row r="48">
       <c r="C48" s="31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D48" s="32" t="str">
         <f>(D13+D24+D38+D46)</f>
@@ -19842,7 +19890,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -19885,7 +19933,7 @@
         <v>1.0</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D3" s="12">
         <v>150185.0</v>
@@ -19897,7 +19945,7 @@
         <v>5.0</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="H3" s="14">
         <v>78.78</v>
@@ -19911,7 +19959,7 @@
         <v>2.0</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D4" s="12">
         <v>139400.0</v>
@@ -19951,13 +19999,13 @@
         <v>4.0</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D6" s="12">
         <v>150009.0</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
@@ -19971,13 +20019,13 @@
         <v>5.0</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D7" s="12">
         <v>158893.0</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
@@ -19991,13 +20039,13 @@
         <v>6.0</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D8" s="12">
         <v>200000.0</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
@@ -20011,13 +20059,13 @@
         <v>7.0</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D9" s="12">
         <v>200000.0</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
@@ -20031,13 +20079,13 @@
         <v>8.0</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D10" s="12">
         <v>151943.0</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
@@ -20078,7 +20126,7 @@
         <v>7.0</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="H12" s="14">
         <v>96.1</v>
@@ -20092,13 +20140,13 @@
         <v>2.0</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D13" s="12">
         <v>137851.0</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
@@ -20192,13 +20240,13 @@
         <v>7.0</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D18" s="12">
         <v>161038.0</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
@@ -20212,13 +20260,13 @@
         <v>8.0</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D19" s="12">
         <v>158541.0</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
@@ -20252,13 +20300,13 @@
         <v>10.0</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D21" s="12">
         <v>151325.0</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
@@ -20299,7 +20347,7 @@
         <v>0.0</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="H23" s="14">
         <v>94.82</v>
@@ -20333,13 +20381,13 @@
         <v>3.0</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D25" s="12">
         <v>200000.0</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
@@ -20373,13 +20421,13 @@
         <v>5.0</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D27" s="12">
         <v>199999.0</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
@@ -20413,13 +20461,13 @@
         <v>7.0</v>
       </c>
       <c r="C29" s="27" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D29" s="12">
         <v>200000.0</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
@@ -20453,13 +20501,13 @@
         <v>9.0</v>
       </c>
       <c r="C31" s="27" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D31" s="12">
         <v>200000.0</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F31" s="16"/>
       <c r="G31" s="16"/>
@@ -20473,13 +20521,13 @@
         <v>10.0</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D32" s="12">
         <v>200000.0</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
@@ -20519,7 +20567,9 @@
       <c r="F34" s="14">
         <v>0.0</v>
       </c>
-      <c r="G34" s="29"/>
+      <c r="G34" s="14" t="s">
+        <v>140</v>
+      </c>
       <c r="H34" s="29"/>
     </row>
     <row r="35">
@@ -20530,7 +20580,7 @@
         <v>2.0</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D35" s="12">
         <v>166357.0</v>
@@ -20550,7 +20600,7 @@
         <v>3.0</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D36" s="12">
         <v>200000.0</v>
@@ -20570,13 +20620,13 @@
         <v>4.0</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D37" s="12">
         <v>200000.0</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
@@ -20590,13 +20640,13 @@
         <v>5.0</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D38" s="12">
         <v>196892.0</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
@@ -20619,7 +20669,7 @@
     </row>
     <row r="41">
       <c r="C41" s="31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D41" s="32" t="str">
         <f>(D11+D22+D33+D39)</f>
@@ -20666,7 +20716,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -20721,7 +20771,7 @@
         <v>0.0</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="H3" s="14">
         <v>95.45</v>
@@ -20835,13 +20885,13 @@
         <v>7.0</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D9" s="12">
         <v>157525.0</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
@@ -20855,13 +20905,13 @@
         <v>8.0</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D10" s="12">
         <v>150000.0</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
@@ -20875,13 +20925,13 @@
         <v>9.0</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D11" s="12">
         <v>200000.0</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
@@ -20895,13 +20945,13 @@
         <v>10.0</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D12" s="12">
         <v>200000.0</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
@@ -20930,19 +20980,19 @@
         <v>1.0</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D14" s="12">
         <v>198935.0</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F14" s="14">
         <v>0.0</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="H14" s="14">
         <v>98.7</v>
@@ -20956,13 +21006,13 @@
         <v>2.0</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D15" s="12">
         <v>199856.0</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
@@ -20996,7 +21046,7 @@
         <v>5.0</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D17" s="12">
         <v>188020.0</v>
@@ -21016,13 +21066,13 @@
         <v>6.0</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D18" s="12">
         <v>88651.0</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
@@ -21036,13 +21086,13 @@
         <v>7.0</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="12">
         <v>88026.0</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
@@ -21076,13 +21126,13 @@
         <v>9.0</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D21" s="12">
         <v>199976.0</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
@@ -21163,7 +21213,7 @@
         <v>0.0</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="H25" s="14">
         <v>93.96</v>
@@ -21177,13 +21227,13 @@
         <v>2.0</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D26" s="12">
         <v>200000.0</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
@@ -21197,13 +21247,13 @@
         <v>3.0</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D27" s="12">
         <v>199314.0</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
@@ -21237,13 +21287,13 @@
         <v>5.0</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D29" s="12">
         <v>183781.0</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
@@ -21257,13 +21307,13 @@
         <v>6.0</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D30" s="12">
         <v>191417.0</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F30" s="16"/>
       <c r="G30" s="16"/>
@@ -21277,13 +21327,13 @@
         <v>7.0</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D31" s="12">
         <v>192133.0</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F31" s="16"/>
       <c r="G31" s="16"/>
@@ -21337,13 +21387,13 @@
         <v>10.0</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D34" s="12">
         <v>199340.0</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
@@ -21383,7 +21433,9 @@
       <c r="F36" s="14">
         <v>1.0</v>
       </c>
-      <c r="G36" s="29"/>
+      <c r="G36" s="14" t="s">
+        <v>154</v>
+      </c>
       <c r="H36" s="29"/>
     </row>
     <row r="37">
@@ -21394,13 +21446,13 @@
         <v>2.0</v>
       </c>
       <c r="C37" s="26" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D37" s="12">
         <v>165326.0</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
@@ -21434,13 +21486,13 @@
         <v>4.0</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D39" s="12">
         <v>159381.0</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F39" s="16"/>
       <c r="G39" s="16"/>
@@ -21474,13 +21526,13 @@
         <v>6.0</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D41" s="12">
         <v>184594.0</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F41" s="16"/>
       <c r="G41" s="16"/>
@@ -21514,13 +21566,13 @@
         <v>8.0</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D43" s="12">
         <v>128165.0</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F43" s="16"/>
       <c r="G43" s="16"/>
@@ -21543,7 +21595,7 @@
     </row>
     <row r="46">
       <c r="C46" s="31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D46" s="32" t="str">
         <f>(D13+D24+D35+D44)</f>
@@ -21590,7 +21642,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -21659,13 +21711,13 @@
         <v>2.0</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D4" s="12">
         <v>136789.0</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -21679,13 +21731,13 @@
         <v>3.0</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D5" s="12">
         <v>121277.0</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
@@ -21699,13 +21751,13 @@
         <v>4.0</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D6" s="12">
         <v>136789.0</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
@@ -21759,13 +21811,13 @@
         <v>7.0</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D9" s="12">
         <v>146477.0</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
@@ -21806,7 +21858,7 @@
         <v>0.0</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="H11" s="14">
         <v>71.42</v>
@@ -21840,13 +21892,13 @@
         <v>3.0</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D13" s="12">
         <v>153240.0</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
@@ -21860,7 +21912,7 @@
         <v>4.0</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D14" s="12">
         <v>137494.0</v>
@@ -21880,7 +21932,7 @@
         <v>5.0</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D15" s="12">
         <v>157414.0</v>
@@ -21900,7 +21952,7 @@
         <v>6.0</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D16" s="12">
         <v>162116.0</v>
@@ -21920,13 +21972,13 @@
         <v>7.0</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D17" s="12">
         <v>167343.0</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
@@ -21975,19 +22027,19 @@
         <v>1.0</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D20" s="12">
         <v>200000.0</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F20" s="14">
         <v>0.0</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="H20" s="14">
         <v>93.96</v>
@@ -22001,13 +22053,13 @@
         <v>2.0</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="D21" s="12">
         <v>200000.0</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
@@ -22041,13 +22093,13 @@
         <v>4.0</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D23" s="12">
         <v>157892.0</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
@@ -22061,13 +22113,13 @@
         <v>5.0</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D24" s="12">
         <v>135823.0</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
@@ -22081,13 +22133,13 @@
         <v>6.0</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D25" s="12">
         <v>200000.0</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
@@ -22101,13 +22153,13 @@
         <v>7.0</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D26" s="12">
         <v>200000.0</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
@@ -22121,13 +22173,13 @@
         <v>8.0</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D27" s="12">
         <v>188107.0</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
@@ -22176,18 +22228,20 @@
         <v>1.0</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D30" s="12">
         <v>176396.0</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F30" s="14">
         <v>0.0</v>
       </c>
-      <c r="G30" s="29"/>
+      <c r="G30" s="14" t="s">
+        <v>158</v>
+      </c>
       <c r="H30" s="29"/>
     </row>
     <row r="31">
@@ -22278,13 +22332,13 @@
         <v>6.0</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D35" s="12">
         <v>199306.0</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
@@ -22298,13 +22352,13 @@
         <v>7.0</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D36" s="12">
         <v>200000.0</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
@@ -22347,7 +22401,7 @@
     </row>
     <row r="40">
       <c r="C40" s="31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D40" s="32" t="str">
         <f>(D10+D19+D29+D38)</f>
@@ -22390,11 +22444,12 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="3" max="3" width="36.57"/>
+    <col customWidth="1" min="6" max="6" width="15.0"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -22448,7 +22503,9 @@
       <c r="F3" s="14">
         <v>0.0</v>
       </c>
-      <c r="G3" s="29"/>
+      <c r="G3" s="14" t="s">
+        <v>160</v>
+      </c>
       <c r="H3" s="29"/>
     </row>
     <row r="4">
@@ -22459,13 +22516,13 @@
         <v>2.0</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D4" s="12">
         <v>120945.0</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -22479,13 +22536,13 @@
         <v>3.0</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D5" s="12">
         <v>117450.0</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
@@ -22499,13 +22556,13 @@
         <v>4.0</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D6" s="12">
         <v>205842.0</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
@@ -22519,13 +22576,13 @@
         <v>5.0</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D7" s="12">
         <v>46268.0</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
@@ -22619,13 +22676,13 @@
         <v>10.0</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D12" s="12">
         <v>200000.0</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
@@ -22665,7 +22722,9 @@
       <c r="F14" s="14">
         <v>0.0</v>
       </c>
-      <c r="G14" s="29"/>
+      <c r="G14" s="14" t="s">
+        <v>161</v>
+      </c>
       <c r="H14" s="29"/>
     </row>
     <row r="15">
@@ -22676,13 +22735,13 @@
         <v>2.0</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D15" s="12">
         <v>200000.0</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
@@ -22756,13 +22815,13 @@
         <v>6.0</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="D19" s="12">
         <v>200000.0</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
@@ -22776,13 +22835,13 @@
         <v>7.0</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D20" s="12">
         <v>200000.0</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
@@ -22796,13 +22855,13 @@
         <v>8.0</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D21" s="12">
         <v>200000.0</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
@@ -22883,7 +22942,7 @@
         <v>0.0</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="H25" s="14">
         <v>82.75</v>
@@ -22897,13 +22956,13 @@
         <v>2.0</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D26" s="12">
         <v>167040.0</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F26" s="16"/>
       <c r="G26" s="16"/>
@@ -22917,13 +22976,13 @@
         <v>3.0</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D27" s="12">
         <v>181507.0</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
@@ -22937,13 +22996,13 @@
         <v>4.0</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D28" s="12">
         <v>181507.0</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F28" s="16"/>
       <c r="G28" s="16"/>
@@ -22977,7 +23036,7 @@
         <v>6.0</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D30" s="12">
         <v>188091.0</v>
@@ -22997,13 +23056,13 @@
         <v>7.0</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D31" s="12">
         <v>161675.0</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F31" s="16"/>
       <c r="G31" s="16"/>
@@ -23057,7 +23116,7 @@
         <v>10.0</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D34" s="12">
         <v>122204.0</v>
@@ -23077,13 +23136,13 @@
         <v>11.0</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D35" s="12">
         <v>157299.0</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
@@ -23123,7 +23182,9 @@
       <c r="F37" s="14">
         <v>0.0</v>
       </c>
-      <c r="G37" s="29"/>
+      <c r="G37" s="14" t="s">
+        <v>164</v>
+      </c>
       <c r="H37" s="29"/>
     </row>
     <row r="38">
@@ -23154,13 +23215,13 @@
         <v>3.0</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="D39" s="12">
         <v>186432.0</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F39" s="16"/>
       <c r="G39" s="16"/>
@@ -23174,13 +23235,13 @@
         <v>4.0</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="D40" s="12">
         <v>190553.0</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
@@ -23194,13 +23255,13 @@
         <v>5.0</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D41" s="12">
         <v>169935.0</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F41" s="16"/>
       <c r="G41" s="16"/>
@@ -23234,13 +23295,13 @@
         <v>7.0</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="D43" s="12">
         <v>154996.0</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F43" s="16"/>
       <c r="G43" s="16"/>
@@ -23254,7 +23315,7 @@
         <v>8.0</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D44" s="12">
         <v>66799.0</v>
@@ -23283,7 +23344,7 @@
     </row>
     <row r="47">
       <c r="C47" s="31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D47" s="32" t="str">
         <f>(D13+D24+D36+D45)</f>
